--- a/气象/( 已过时 )北境强冷站每日气温记录.xlsx
+++ b/气象/( 已过时 )北境强冷站每日气温记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA084D0F-1FED-4451-AD8E-B8A0C7D77987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753B37DA-B869-4E73-AE56-0DCBBB027EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
   <sheets>
     <sheet name="无格式草稿" sheetId="2" r:id="rId1"/>
@@ -2237,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E72AAA-3912-4684-8CF1-D56A9EC12E76}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -2934,8 +2934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0FA41-85CC-443B-8D70-8487574C7D86}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3597,26 +3597,6 @@
         <color rgb="FF4CC9F0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF72585"/>
-        <color rgb="FF7209B7"/>
-        <color rgb="FF480CA8"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF72585"/>
-        <color rgb="FF3A0CA3"/>
-        <color rgb="FF4CC9F0"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E27">
     <cfRule type="colorScale" priority="1">
@@ -3627,36 +3607,6 @@
         <color rgb="FF480CA8"/>
         <color rgb="FF4CC9F0"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF8EA604"/>
-        <color rgb="FFEC9F05"/>
-        <color rgb="FFBF3100"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF72585"/>
-        <color rgb="FF3A0CA3"/>
-        <color rgb="FF4CC9F0"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF00FF"/>
-        <color rgb="FF3A0CA3"/>
-        <color rgb="FF4CC9F0"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
